--- a/test_api/data/test.xlsx
+++ b/test_api/data/test.xlsx
@@ -1325,7 +1325,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>{"errcode":0,"errmsg":"ok","userid":"12224","name":"zhangsan5","department":[1],"position":"","mobile":"13255555556","gender":"0","email":"","avatar":"","status":4,"isleader":0,"extattr":{"attrs":[]},"telephone":"","enable":1,"hide_mobile":0,"order":[0],"main_department":1,"qr_code":"https://open.work.weixin.qq.com/wwopen/userQRCode?vcode=vc9bceb11a4da1c3c3","alias":"zhangsan5","is_leader_in_dept":[0],"thumb_avatar":""}</t>
+          <t>{"errcode":0,"errmsg":"ok","userid":"12224","name":"zhangsan5","department":[1],"position":"","mobile":"13255555556","gender":"0","email":"","avatar":"","status":4,"isleader":0,"extattr":{"attrs":[]},"telephone":"","enable":1,"hide_mobile":0,"order":[0],"main_department":1,"qr_code":"https://open.work.weixin.qq.com/wwopen/userQRCode?vcode=vcf11a7ecfa6018e10","alias":"zhangsan5","is_leader_in_dept":[0],"thumb_avatar":""}</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -1367,7 +1367,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>{"errcode":0,"errmsg":"ok","userid":"12226","name":"zhangsan6","department":[1],"position":"","mobile":"13255555557","gender":"0","email":"","avatar":"","status":4,"isleader":0,"extattr":{"attrs":[]},"telephone":"","enable":1,"hide_mobile":0,"order":[0],"main_department":1,"qr_code":"https://open.work.weixin.qq.com/wwopen/userQRCode?vcode=vc70745bd4ab86591e","alias":"zhangsan6","is_leader_in_dept":[0],"thumb_avatar":""}</t>
+          <t>{"errcode":0,"errmsg":"ok","userid":"12226","name":"zhangsan6","department":[1],"position":"","mobile":"13255555557","gender":"0","email":"","avatar":"","status":4,"isleader":0,"extattr":{"attrs":[]},"telephone":"","enable":1,"hide_mobile":0,"order":[0],"main_department":1,"qr_code":"https://open.work.weixin.qq.com/wwopen/userQRCode?vcode=vce4d04712dd525473","alias":"zhangsan6","is_leader_in_dept":[0],"thumb_avatar":""}</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
